--- a/artfynd/A 54631-2022.xlsx
+++ b/artfynd/A 54631-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY47"/>
+  <dimension ref="A1:AY50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6376,6 +6376,365 @@
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>112557989</v>
+      </c>
+      <c r="B48" t="n">
+        <v>93413</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>210</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Grön sköldmossa</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Buxbaumia viridis</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Björklund, NV om, Srm</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>595556</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6550792</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Flen</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Mellösa</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Vid roten på gammal granlåga.</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>112557966</v>
+      </c>
+      <c r="B49" t="n">
+        <v>93413</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>210</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Grön sköldmossa</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Buxbaumia viridis</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Björklund, NV om, Srm</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>595502</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6550929</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Flen</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Mellösa</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Nära roten på gammal granlåga.</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>112557762</v>
+      </c>
+      <c r="B50" t="n">
+        <v>89017</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Fyrflikig jordstjärna</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Geastrum quadrifidum</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Pers.:Pers.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Björklund, NV om, Srm</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>595561</v>
+      </c>
+      <c r="R50" t="n">
+        <v>6550947</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Flen</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Mellösa</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Grandominerad skog fortfarande oangripen av granbarkborrar.</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
